--- a/Skill Audit/Group 3 Skills Audit.xlsx
+++ b/Skill Audit/Group 3 Skills Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DFED85B-3154-4685-BD81-7901E527A7B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAD0C5B-743E-451D-A0C3-E464266743C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,18 +90,12 @@
     <t>Bootstrap</t>
   </si>
   <si>
-    <t xml:space="preserve">  Skill Audit for Swastika Adhikari</t>
-  </si>
-  <si>
     <t>Tutorials Point Course on youtube</t>
   </si>
   <si>
     <t>Free online courses on documentation</t>
   </si>
   <si>
-    <t>Completed by: Swastika Adhikari</t>
-  </si>
-  <si>
     <t>Version 1</t>
   </si>
   <si>
@@ -202,6 +196,12 @@
   </si>
   <si>
     <t>W3Schools tutorials of Html and Css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Skill Audit for Group 3</t>
+  </si>
+  <si>
+    <t>Completed by: Sakriya Bajracharya</t>
   </si>
 </sst>
 </file>
@@ -830,7 +830,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -847,7 +847,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -882,14 +882,14 @@
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="9" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="24"/>
@@ -942,10 +942,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
@@ -968,10 +968,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="6">
         <v>30</v>
@@ -994,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="6">
         <v>4</v>
@@ -1020,10 +1020,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="6">
         <v>20</v>
@@ -1046,10 +1046,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="6">
         <v>8</v>
@@ -1072,10 +1072,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" s="6">
         <v>9</v>
@@ -1098,10 +1098,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="10">
         <v>5</v>
@@ -1124,10 +1124,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="12">
         <v>5</v>
@@ -1150,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15" s="12">
         <v>2</v>
@@ -1176,10 +1176,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" s="12">
         <v>7</v>
@@ -1202,10 +1202,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F17" s="12">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="12">
         <v>3</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" s="12">
         <v>12</v>
@@ -1248,16 +1248,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="12">
         <v>2</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" s="12">
         <v>2</v>
@@ -1274,16 +1274,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="F20" s="12">
         <v>4</v>
@@ -1300,16 +1300,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="12">
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="F21" s="12">
         <v>2</v>

--- a/Skill Audit/Group 3 Skills Audit.xlsx
+++ b/Skill Audit/Group 3 Skills Audit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\All\Semister 6\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAD0C5B-743E-451D-A0C3-E464266743C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C908B00-F8D9-48AD-A19A-DAE9E2136884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>NO#</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Skill Level: 1 (No Knowledge) - 5 (Competent)</t>
   </si>
   <si>
-    <t xml:space="preserve">Swastika Adhikari </t>
+    <t>Skills Audit for Group3(Cleckhuddersfax E-commerce Store)</t>
   </si>
   <si>
     <t>Html/Css</t>
@@ -66,6 +66,9 @@
     <t>Github</t>
   </si>
   <si>
+    <t>API</t>
+  </si>
+  <si>
     <t>Javascript</t>
   </si>
   <si>
@@ -78,10 +81,7 @@
     <t>Documentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Photoshop </t>
-  </si>
-  <si>
-    <t>API</t>
+    <t>Photoshop</t>
   </si>
   <si>
     <t>Illustrator</t>
@@ -90,118 +90,166 @@
     <t>Bootstrap</t>
   </si>
   <si>
-    <t>Tutorials Point Course on youtube</t>
-  </si>
-  <si>
-    <t>Free online courses on documentation</t>
+    <t>Apex Oracle</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Trello</t>
+  </si>
+  <si>
+    <t>One drive</t>
+  </si>
+  <si>
+    <t>Sujan Pariyar, Utsav Sapkota</t>
+  </si>
+  <si>
+    <t>Prasanna Shrestha, Sakriya Bajracharya, Sujan Pariyar, Swastika Adhikari, Utsav Sapkota</t>
+  </si>
+  <si>
+    <t>Sakriya Bajracharya, Sujan Pariyar, Utsav Sapkota</t>
+  </si>
+  <si>
+    <t>Prasanna Shrestha, Sakriya Bajracharya,  Swastika Adhikari, Utsav Sapkota</t>
+  </si>
+  <si>
+    <t>SakriyaBajracharya, Swastika Adhikari</t>
+  </si>
+  <si>
+    <t>Swastika Adhikari, Utsav Sapkota</t>
+  </si>
+  <si>
+    <t>Prasanna Shrestha,  Swastika Adhikari, Utsav Sapkota</t>
+  </si>
+  <si>
+    <t>Prasanna Shrestha, Sujan Pariyar, Swastika Adhikari, Utsav Sapkota</t>
+  </si>
+  <si>
+    <t>Prasanna Shrestha, Swastika Adhikari</t>
+  </si>
+  <si>
+    <t>Prasanna Shrestha, Sakriya Bajracharya, Swastika Adhikari, Utsav Sapkota</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sakriya Bajracharya, Swastika Adhikari</t>
+  </si>
+  <si>
+    <t>From Youtube tutorial videos, Follow tutorials on W3Schools, run tests on codepen.io</t>
+  </si>
+  <si>
+    <t>Php course by freeCodeCamp.org on youtube, Udemy course, Receive support from Stack Overflow and Quora</t>
+  </si>
+  <si>
+    <t>Github documentation and youtube tutorials, Learn it from a team member who has sufficient knowledge regarding GitHub</t>
+  </si>
+  <si>
+    <t>Youtube videos of API for paypal integration, Read PayPal SDK Documentation and practise API development promptly</t>
+  </si>
+  <si>
+    <t>Udemy course, Alex garrett's course on Youtube, W3 School tutorials</t>
+  </si>
+  <si>
+    <t>Tutorials Point Course on youtube, From Classes of Rohit Raj Pandey sir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course from Leeds Beckett University website and youtube videos </t>
+  </si>
+  <si>
+    <t>Free online courses on documentation, Practise good report writing skills and standard refrencing style (Harvard) as suggested by Leeds Beckett University</t>
+  </si>
+  <si>
+    <t>Practicing more with the help of notes of previous semester and youtube videos of Photoshop, Utilize all major tools in Photoshop using keyboard shortcuts as revision.</t>
+  </si>
+  <si>
+    <t>Practicing more with the help of notes of previous semester</t>
+  </si>
+  <si>
+    <t>Youtube course of DesignCourse, Bootstrap official website, W3Schools</t>
+  </si>
+  <si>
+    <t>Youtube course of  Apex Oracle, Previous classes , Online Tutorials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Nicholson videos on youtube, Online Tutorials </t>
+  </si>
+  <si>
+    <t>Tutorials and videos from different websites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youtube videos by eTech Technology, Online Tutorials  </t>
+  </si>
+  <si>
+    <t>Become well exposed to HTML and CSS for good front-end designing, content structuring and styling for project</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gain knowledge to work on login system, add to cart and so on needed for the completion of the project.</t>
+  </si>
+  <si>
+    <t>Know how to share and update the files between team members in a common repository  in a proper way</t>
+  </si>
+  <si>
+    <t>Implement online payment system i.e. paypal in our project.</t>
+  </si>
+  <si>
+    <t>Know how to make website more dynamic and to add special effects which makes for more plesent viewing of website</t>
+  </si>
+  <si>
+    <t>Get more knowledge to create eerd, erd and uml diagrams.</t>
+  </si>
+  <si>
+    <t>Gain ideas to make a good report  and overall documentation of project</t>
+  </si>
+  <si>
+    <t>Design a logo that is very easy to understand and carries the brand essence</t>
+  </si>
+  <si>
+    <t>Obtain proper information to make the website reponsive using built in functions to make sure that the website is easy to view</t>
+  </si>
+  <si>
+    <t>Make the images and logos for the project that are more pleasant to view</t>
+  </si>
+  <si>
+    <t>Making the data acessible to multiple users on login and php integration</t>
+  </si>
+  <si>
+    <t>Communicate with team members in a proper way.</t>
+  </si>
+  <si>
+    <t>Gain knowledge to store folders in a proper way.</t>
+  </si>
+  <si>
+    <t>03/25/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  04/14/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  03/29/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  03/15/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  04/15/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  03/25/2020</t>
+  </si>
+  <si>
+    <t>Date Reviewed: 2020-02-27</t>
   </si>
   <si>
     <t>Version 1</t>
   </si>
   <si>
-    <t>Practicing more with the help of notes of previous semester</t>
-  </si>
-  <si>
-    <t>Youtube course of DesignCourse</t>
-  </si>
-  <si>
-    <t>Date Reviewed: 2020-02-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gain knowledge to work on login system, add to cart and so on.</t>
-  </si>
-  <si>
-    <t>Know how to make website more dynamic and to add special effects.</t>
-  </si>
-  <si>
-    <t>Gain more information on how to track the progress of the project.</t>
-  </si>
-  <si>
-    <t>Develop knowledge and implement on project to make website logo.</t>
-  </si>
-  <si>
-    <t>Apex Oracle</t>
-  </si>
-  <si>
-    <t>Develop knowledge on how to use oracle database for our project.</t>
-  </si>
-  <si>
-    <t>Know how to share and update the files between team members in a proper way.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udemy course </t>
-  </si>
-  <si>
-    <t>Youtube videos of API for paypal integration</t>
-  </si>
-  <si>
-    <t>Github courses on youtube and websites</t>
-  </si>
-  <si>
-    <t>Php course by freeCodeCamp.org on youtube</t>
-  </si>
-  <si>
-    <t>Practicing more with the help of notes of previous semester and youtube videos of Photoshop</t>
-  </si>
-  <si>
-    <t>Youtube course of  Apex Oracle</t>
-  </si>
-  <si>
-    <t>Implement online payment i.e. paypal in our project.</t>
-  </si>
-  <si>
-    <t>Slack</t>
-  </si>
-  <si>
-    <t>Trello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One drive </t>
-  </si>
-  <si>
-    <t>Paul Nicholson videos on youtube</t>
-  </si>
-  <si>
-    <t>Tutorials and videos from different websites</t>
-  </si>
-  <si>
-    <t>Youtube videos by eTech Technology</t>
-  </si>
-  <si>
-    <t>Organize team tasks in a better way to complete on time</t>
-  </si>
-  <si>
-    <t>Gain knowledge to store folders in a proper way.</t>
-  </si>
-  <si>
-    <t>Communicate with team members in a proper way.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course from Leeds Beckett University website and youtube videos </t>
-  </si>
-  <si>
-    <t>Get more knowledge to create eerd, erd and uml diagrams.</t>
-  </si>
-  <si>
-    <t>Obtain more knowledge to make documentation better.</t>
-  </si>
-  <si>
-    <t>Gain more practice and ideas to make a better logo.</t>
-  </si>
-  <si>
-    <t>Obtain proper information to make the website reponsive.</t>
-  </si>
-  <si>
-    <t>Better understand front end to implement it on project.</t>
-  </si>
-  <si>
-    <t>W3Schools tutorials of Html and Css</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Skill Audit for Group 3</t>
-  </si>
-  <si>
-    <t>Completed by: Sakriya Bajracharya</t>
+    <t>Completed By: Group 3</t>
+  </si>
+  <si>
+    <t>Organizing team tasks in a proper way, recording every deadline and schedule every meetings for project</t>
+  </si>
+  <si>
+    <t>Gain more information on how to track the progress of the project, divide the task between team members</t>
   </si>
 </sst>
 </file>
@@ -247,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +313,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -367,21 +421,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -425,32 +464,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -829,8 +859,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -842,30 +872,30 @@
     <col min="5" max="5" width="32.3984375" customWidth="1"/>
     <col min="6" max="6" width="13.09765625" customWidth="1"/>
     <col min="7" max="7" width="27.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.8984375" customWidth="1"/>
+    <col min="8" max="8" width="32.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -874,26 +904,26 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>23</v>
+      <c r="B4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -902,32 +932,32 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -935,29 +965,29 @@
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>56</v>
+        <v>3.5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F7" s="6">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8">
-        <v>43900</v>
+        <v>14.5</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -965,25 +995,25 @@
         <v>11</v>
       </c>
       <c r="C8" s="6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F8" s="6">
-        <v>30</v>
-      </c>
-      <c r="G8" s="8">
-        <v>43935</v>
+        <v>20</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -991,334 +1021,334 @@
         <v>12</v>
       </c>
       <c r="C9" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F9" s="6">
-        <v>4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>43897</v>
+        <v>6</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44016</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F10" s="6">
-        <v>20</v>
-      </c>
-      <c r="G10" s="8">
-        <v>43931</v>
+        <v>23</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F11" s="6">
-        <v>8</v>
-      </c>
-      <c r="G11" s="8">
-        <v>43928</v>
+        <v>12</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44016</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="F12" s="6">
         <v>9</v>
       </c>
-      <c r="G12" s="8">
-        <v>43920</v>
+      <c r="G12" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6">
+        <v>6</v>
+      </c>
+      <c r="G13" s="11">
+        <v>43954</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="6">
+        <v>8</v>
+      </c>
+      <c r="G14" s="10">
+        <v>44108</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="6">
+        <v>6</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="G16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="6">
+        <v>11</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="6">
+        <v>17</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="10">
+        <v>43954</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G20" s="10">
+        <v>43954</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="C13" s="10">
-        <v>3</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="B21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="10">
-        <v>5</v>
-      </c>
-      <c r="G13" s="11">
-        <v>43895</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>8</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="E21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="6">
         <v>2</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="12">
-        <v>5</v>
-      </c>
-      <c r="G14" s="13">
-        <v>43905</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>9</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="12">
-        <v>3</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="12">
-        <v>2</v>
-      </c>
-      <c r="G15" s="14">
-        <v>43895</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>10</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="12">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="12">
-        <v>7</v>
-      </c>
-      <c r="G16" s="13">
-        <v>43894</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>11</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="12">
-        <v>3</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="12">
-        <v>3</v>
-      </c>
-      <c r="G17" s="13">
-        <v>43917</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>12</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="12">
-        <v>3</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="12">
-        <v>12</v>
-      </c>
-      <c r="G18" s="13">
-        <v>43926</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>13</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="12">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="12">
-        <v>2</v>
-      </c>
-      <c r="G19" s="13">
-        <v>43890</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>14</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="12">
-        <v>4</v>
-      </c>
-      <c r="G20" s="13">
-        <v>43891</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>15</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="12">
-        <v>2</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="12">
-        <v>2</v>
-      </c>
-      <c r="G21" s="13">
-        <v>43893</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>9</v>
+      <c r="G21" s="10">
+        <v>43954</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">

--- a/Skill Audit/Group 3 Skills Audit.xlsx
+++ b/Skill Audit/Group 3 Skills Audit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\All\Semister 6\Project Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C908B00-F8D9-48AD-A19A-DAE9E2136884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D53C19-8B47-4D73-83D5-F583E03937F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2400" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -859,8 +859,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
